--- a/LibMod.xlsx
+++ b/LibMod.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/MechLibrary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B8D666-68D2-044B-AEDD-7C8E115A1230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C799C007-E069-4B42-B064-470FE8A27368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="26460" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3678,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
@@ -12775,16 +12774,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF02A51-C5DA-D84B-B8DF-E635423AAFCB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>